--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pc\DOCUME~1\카카오~1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3838C18F-C8AB-4F56-999B-E17D1C16B78C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19392" windowHeight="7848"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -261,11 +262,29 @@
 퇴직 - leave_date 가장 최근인 것</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>StaffDAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력사항 및 파일첨부 예외</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. 이력서, 보건증, 통장사본 데이터 타입 VARCHAR2(40) 초과 일 경우
+2. 첨부파일 크기제한??(png, jpg...)
+3. 계좌번호 형식(-) , 길이 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원회원인증/직원 회원정보변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -685,24 +704,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E26" sqref="E26"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -716,8 +735,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -731,7 +750,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -745,7 +764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -759,7 +778,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -773,7 +792,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -787,7 +806,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -801,7 +820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -815,7 +834,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -829,7 +848,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -843,7 +862,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -857,7 +876,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -871,7 +890,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A15" s="6" t="s">
         <v>22</v>
       </c>
@@ -885,7 +904,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>22</v>
       </c>
@@ -899,7 +918,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -913,7 +932,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
@@ -927,7 +946,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
@@ -941,7 +960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
@@ -955,7 +974,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
@@ -963,7 +982,7 @@
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25" s="6" t="s">
         <v>49</v>
       </c>
@@ -977,7 +996,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
@@ -991,7 +1010,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:4" ht="85" x14ac:dyDescent="0.45">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
@@ -1003,6 +1022,20 @@
       </c>
       <c r="D27" s="1" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1013,12 +1046,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1026,12 +1059,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3838C18F-C8AB-4F56-999B-E17D1C16B78C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19392" windowHeight="7848"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -280,11 +279,19 @@
     <t>직원회원인증/직원 회원정보변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>전화번호 양식 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>숫자로만 이루어진 10~11자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -704,24 +711,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="21.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.8984375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.3984375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.69921875" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -735,8 +742,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -750,7 +757,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -764,7 +771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
@@ -778,7 +785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
@@ -792,7 +799,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -806,7 +813,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -820,21 +827,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -842,41 +849,41 @@
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -884,41 +891,41 @@
         <v>44</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A15" s="6" t="s">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B16" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="7" t="s">
+      <c r="C16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="7" t="s">
+      <c r="D16" s="7" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -926,115 +933,129 @@
         <v>41</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A23" s="6" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="6" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="6" t="s">
+      <c r="B26" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="7" t="s">
+      <c r="C26" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="D25" s="7" t="s">
+      <c r="D26" s="7" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:4" ht="87" x14ac:dyDescent="0.4">
       <c r="A27" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B27" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="87" x14ac:dyDescent="0.4">
+      <c r="A28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D28" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
+    <row r="29" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A29" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -1046,12 +1067,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1059,12 +1080,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4BAF77-C488-4EE9-98EB-DA6F48368A02}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19392" windowHeight="7848"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,10 +131,6 @@
   </si>
   <si>
     <t>배정 유형(assign_type)에 개인/파트 이외에 직접 입력 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAO에서 조건으로 1차 예외처리 함(by 윤영)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -287,11 +284,79 @@
     <t>숫자로만 이루어진 10~11자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>중요도 0,1 이외 exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - addDailyTaskWithWrongImportance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - addDailyTaskWithWrongPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위,위 내용과 비슷. 없는 파트에 업무배정 exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>위,위 내용과 비슷. 없는 개인에 업무배정 exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - addDailyTaskWithWrongStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 관리자코드에 업무배정 exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - addDailyTaskWithWrongAdminSeq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO에서 조건으로 1차 예외처리 함(by 윤영)
+DailyDAOUnitTest참고 - addDailyTaskWithDuplicate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택날짜에 없는 업무를 바꾸려는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWrongWithChangeAssignDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼 업무에 해당하는 assign_detail을 바꾸려는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWrongWithNonExistTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWrongWithOverDataSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무수정</t>
+  </si>
+  <si>
+    <t>업무수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직접입력업무를 입력할때 VARCHAR2(60)이 넘을 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -711,24 +776,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.3984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.8984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.3984375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.69921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.4140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.9140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.4140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.6640625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -742,8 +807,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickTop="1" x14ac:dyDescent="0.4"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -757,12 +822,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
@@ -771,12 +836,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A5" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
@@ -785,12 +850,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A6" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
@@ -799,12 +864,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
@@ -813,12 +878,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -827,26 +892,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>8</v>
@@ -855,12 +920,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>12</v>
@@ -869,26 +934,26 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>9</v>
@@ -897,166 +962,264 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    </row>
+    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34.799999999999997" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C28" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="D28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A24" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A26" s="6" t="s">
+      <c r="B35" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="C36" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="87" x14ac:dyDescent="0.4">
-      <c r="A27" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D27" s="1" t="s">
+    </row>
+    <row r="37" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="87" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="3" t="s">
+      <c r="C37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="1" t="s">
+    </row>
+    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="52.2" x14ac:dyDescent="0.4">
-      <c r="A29" s="3" t="s">
+      <c r="B38" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C38" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>58</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1067,12 +1230,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1080,12 +1243,12 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E4BAF77-C488-4EE9-98EB-DA6F48368A02}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDCA33E-1B91-4440-8914-D5465B1FE28C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,6 +350,22 @@
   </si>
   <si>
     <t>직접입력업무를 입력할때 VARCHAR2(60)이 넘을 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 파트에 재배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyAssignWrongWithNonExistPart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 직원에 재배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyAssignWrongWithNonExistStaff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -777,11 +793,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1144,81 +1160,109 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B28" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33" s="6"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="6"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B37" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C35" s="7" t="s">
+      <c r="C37" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D35" s="7" t="s">
+      <c r="D37" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
+    <row r="38" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B38" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A37" s="3" t="s">
+    <row r="39" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B39" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
+    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FDCA33E-1B91-4440-8914-D5465B1FE28C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB736364-B135-4FA0-9327-4800C531A396}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -366,6 +366,34 @@
   </si>
   <si>
     <t>DailyDAOUnitTest참고 - setDailyAssignWrongWithNonExistStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 업무 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - removeDailyTaskWorngWithNonExistDailyTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> assign_type 다른경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>assign_detail 다른경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - removeDailyTaskWorngWithAssignType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - removeDailyTaskWorngWithAssignDetail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,8 +824,8 @@
   <dimension ref="A1:D40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D30" sqref="D30"/>
+      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1200,6 +1228,48 @@
       </c>
       <c r="D30" s="1" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB736364-B135-4FA0-9327-4800C531A396}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABECE8-30B8-4441-A48F-7695FECCC5B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,86 @@
   </si>
   <si>
     <t>DailyDAOUnitTest참고 - removeDailyTaskWorngWithAssignDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패스워드 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 재설정 시 양식 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAOUnitTest - resetPwWithWrongFormat 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디에 해당하는 휴대폰 번호 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀린아이디로 회원정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAOUnitTest - setUserInfoWithWrongId 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원회원인증/회원정보변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디에 해당하는 회원정보 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀린 아이디 - UserDAOUnitTest - getUserPhoneNumWithWrongId 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀린 아이디 - UserDAOUnitTest - getUserInfoWithWrongId 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 변경 시 기존 비밀번호가 틀릴 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원탈퇴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀린 아이디</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAOUnitTest - setPwWithWrongOldPw 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>removeUserWithWrongId - setPwWithWrongOldPw 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>틀린아이디로 슬라이드 메뉴 정보 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UserDAOUnitTest - getAdminSlideInfoWithWrongId 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,7 +538,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -481,6 +561,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -821,11 +907,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D40"/>
+  <dimension ref="A1:D51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C32" sqref="C32"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -867,73 +953,63 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A5" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
+      <c r="A6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>39</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.45">
@@ -941,13 +1017,13 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.45">
@@ -958,10 +1034,10 @@
         <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.45">
@@ -969,41 +1045,41 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A12" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>43</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.45">
@@ -1011,328 +1087,468 @@
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>45</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>30</v>
+      <c r="A16" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>23</v>
+        <v>108</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A19" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A22" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C27" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A29" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A19" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C30" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A21" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A23" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A24" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C35" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C36" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B37" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C37" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D37" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B39" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C39" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A29" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B40" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C40" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A41" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B41" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C42" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B43" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C43" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D43" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C44" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A35" s="6" t="s">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B35" s="6"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A37" s="6" t="s">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B37" s="6" t="s">
+      <c r="B48" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="7" t="s">
+      <c r="C48" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D37" s="7" t="s">
+      <c r="D48" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A38" s="3" t="s">
+    <row r="49" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B38" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D49" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A39" s="3" t="s">
+    <row r="50" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B39" s="3" t="s">
+      <c r="B50" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C50" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A40" s="3" t="s">
+    <row r="51" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A51" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B51" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D51" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABECE8-30B8-4441-A48F-7695FECCC5B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C818D08C-CEB5-44C4-BCB9-2AEA2A78A314}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,12 +17,12 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,14 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위,위 내용과 비슷. 없는 파트에 업무배정 exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위,위 내용과 비슷. 없는 개인에 업무배정 exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyDAOUnitTest참고 - addDailyTaskWithWrongStaff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,22 +365,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>없는 업무 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyDAOUnitTest참고 - removeDailyTaskWorngWithNonExistDailyTask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> assign_type 다른경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assign_detail 다른경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyDAOUnitTest참고 - removeDailyTaskWorngWithAssignType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -474,6 +454,133 @@
   </si>
   <si>
     <t>UserDAOUnitTest - getAdminSlideInfoWithWrongId 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자,직원,미인증자 여부확인</t>
+  </si>
+  <si>
+    <t>관리자/직원회원인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디로 인증정보 확인 UserDAOUnitTest - getCertifiedInfo 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTaskTypesWrongWithNonExistSpaceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSpaceTypesWrongWithNonExistTaskType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTasksWrongWithNonExistSpaceTypeTaskType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getManualTaskSeqWrongWithNonExistTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 공간분류에 해당하는 매뉴얼 업무 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 업무분류에 해당하는 공간분류 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 공간분류, 없는 업무분류에 해당하는 매뉴얼 업무 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 업무에 해당하는 매뉴얼 업무 SEQ찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼 업무 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼 업무 SEQ찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 날짜에 해당하는 배정대상 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAssignedPartsWrongWithAssignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDailyTasksForPartsWrongWithAssignDateAssignDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDailyTasksForPersonWrongWithAssignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트별 - 선택한 날짜, 배정대상에 해당하는 업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인별 - 선택한 날짜에 해당하는 업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDailyTaskWithExistDailyTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배정날짜와 업무명이 중복되는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDailyTaskWithWrongWithAssignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는날짜에 업무명 중복 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 파트에 업무배정 exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 개인에 업무배정 exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 삭제 - 없는 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무삭제 - assign_type다른경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무삭제 - assign_detail다른경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배정대상 목록보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 중복 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -907,11 +1014,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -957,10 +1064,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" s="9"/>
     </row>
@@ -969,10 +1076,10 @@
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9"/>
     </row>
@@ -1101,13 +1208,13 @@
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.45">
@@ -1115,13 +1222,13 @@
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -1129,13 +1236,13 @@
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -1160,10 +1267,10 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.45">
@@ -1174,10 +1281,10 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.45">
@@ -1188,10 +1295,10 @@
         <v>36</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.45">
@@ -1199,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>9</v>
@@ -1227,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>105</v>
@@ -1236,32 +1343,32 @@
         <v>107</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C27" s="7" t="s">
+      <c r="C28" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="7" t="s">
+      <c r="D28" s="7" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A28" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -1272,13 +1379,13 @@
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1286,10 +1393,10 @@
         <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -1297,13 +1404,13 @@
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
+        <v>120</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -1311,13 +1418,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -1325,55 +1432,55 @@
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A35" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A36" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>77</v>
-      </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
@@ -1381,13 +1488,13 @@
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>129</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
+        <v>64</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
@@ -1395,41 +1502,41 @@
         <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>130</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.45">
@@ -1437,27 +1544,27 @@
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>74</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
@@ -1465,13 +1572,13 @@
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
@@ -1479,76 +1586,208 @@
         <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D49" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="6" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A52" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="6" t="s">
+      <c r="B52" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A53" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A54" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A55" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C55" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B48" s="6" t="s">
+      <c r="B57" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C57" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
+    <row r="58" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="B58" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
+    <row r="59" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="3" t="s">
+      <c r="B59" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+    <row r="60" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B60" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C60" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D60" s="1" t="s">
         <v>58</v>
       </c>
     </row>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C818D08C-CEB5-44C4-BCB9-2AEA2A78A314}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{842214C4-7F5E-4521-B46A-6B659D334A4C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="190">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -582,6 +582,180 @@
   <si>
     <t>업무 중복 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점코드 입력 가능범위 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWorkPartsWithOutofboundsBranchSeq</t>
+  </si>
+  <si>
+    <t>직원 소속파트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 지점의 소속파트 가져오기</t>
+  </si>
+  <si>
+    <t>getWorkPartsWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>없는 지점의 직원목록 가져오기</t>
+  </si>
+  <si>
+    <t>직원 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWorkingStaffsWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>없는 지점의 직원 인증요청 목록 가져오기</t>
+  </si>
+  <si>
+    <t>getPreStaffsWithNonexistBranchSeq</t>
+  </si>
+  <si>
+    <t>직원 인증요청 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 인증요청 수락한(재직중인) 직원을 재수락하는 경우</t>
+  </si>
+  <si>
+    <t>setJoinDateWithPreStaff</t>
+  </si>
+  <si>
+    <t>직원 인증요청 수락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증요청하지 않은 직원의 입사일을 등록하는 경우(회원이지만 인증요청X or 비회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setJoinDateWithoutAddStaff</t>
+  </si>
+  <si>
+    <t>이미 퇴사한 직원을 퇴사시키려는 경우-예외처리 필요</t>
+  </si>
+  <si>
+    <t>직원 인증요청 거부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사 직원 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setLeaveDateWithLeftStaff</t>
+  </si>
+  <si>
+    <t>인증요청만 하고 승인 안 된 직원을 퇴사시키는 경우</t>
+  </si>
+  <si>
+    <t>setLeaveDateWithPreStaff</t>
+  </si>
+  <si>
+    <t>인증요청하지 않은 직원의 퇴사일을 등록하는 경우/존재하지 않는 회원의 경우</t>
+  </si>
+  <si>
+    <t>setLeaveDateWithWrongStaff</t>
+  </si>
+  <si>
+    <t>getLeftStaffsWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>없는 지점의 퇴사직원 목록 조회</t>
+  </si>
+  <si>
+    <t>퇴사 직원 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 상세 정보 보기</t>
+  </si>
+  <si>
+    <t>없는 지점의 직원 상세 보기</t>
+  </si>
+  <si>
+    <t>getStaffDetailWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>없는 직원 상세 보기</t>
+  </si>
+  <si>
+    <t>getStaffDetailWithWrongStaffId</t>
+  </si>
+  <si>
+    <t>직원 등록(승인요청)</t>
+  </si>
+  <si>
+    <t>재직중인 직원인데 인증요청하는 경우(입사일을 덮어씌우는 경우)</t>
+  </si>
+  <si>
+    <t>addStaffWithJoinedStaff
+추가 예외처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증요청한 직원이 계속 인증요청 하는 경우</t>
+  </si>
+  <si>
+    <t>addStaffWithPreStaff
+추가 예외처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 회원정보 변경</t>
+  </si>
+  <si>
+    <t>setStaffInfoWithPreStaff</t>
+  </si>
+  <si>
+    <t>인증 승인 대기중인 직원의 직원정보 변경-UI에서 할 수가 없음</t>
+  </si>
+  <si>
+    <t>없는 직원의 직원정보 변경</t>
+  </si>
+  <si>
+    <t>setStaffInfoWithWrongStaff</t>
+  </si>
+  <si>
+    <t>부적절한 파일형식으로 변경하는 경우</t>
+  </si>
+  <si>
+    <t>setStaffInfoWithWrongFileFormat</t>
+  </si>
+  <si>
+    <t>부적절한 계좌번호 형식으로 변경하는 경우</t>
+  </si>
+  <si>
+    <t>setStaffInfoWithWrongAccountNumFormat</t>
+  </si>
+  <si>
+    <t>이미 승인 처리받은 직원(재직) 의 요청을 거부하려고 하는 경우</t>
+  </si>
+  <si>
+    <t>인증요청하지 않은 경우(or 없는 직원의 경우)</t>
+  </si>
+  <si>
+    <t>removeStaffWithJoinedStaff</t>
+  </si>
+  <si>
+    <t>removeStaffWithWrongStaffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사한 직원의 인증을 거부하는 경우</t>
+  </si>
+  <si>
+    <t>removeStaffWithLeftStaff</t>
   </si>
 </sst>
 </file>
@@ -1014,23 +1188,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1044,8 +1218,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1059,8 +1233,8 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
@@ -1071,8 +1245,8 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
@@ -1083,29 +1257,35 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1113,13 +1293,13 @@
         <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1127,27 +1307,27 @@
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1155,27 +1335,27 @@
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1183,27 +1363,27 @@
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1211,13 +1391,13 @@
         <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1225,27 +1405,27 @@
         <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>90</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>103</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1253,13 +1433,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1267,13 +1447,13 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1281,97 +1461,97 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>94</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A25" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D25" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A28" s="6" t="s">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B28" s="6" t="s">
+      <c r="B27" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="C28" s="7" t="s">
+      <c r="C27" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="7" t="s">
+      <c r="D27" s="7" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1379,41 +1559,41 @@
         <v>40</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>26</v>
+        <v>119</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1421,27 +1601,27 @@
         <v>135</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1449,27 +1629,27 @@
         <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>136</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>128</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
@@ -1477,13 +1657,13 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -1491,13 +1671,13 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -1505,27 +1685,27 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1533,55 +1713,55 @@
         <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>75</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1589,13 +1769,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -1603,41 +1783,41 @@
         <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>79</v>
+        <v>47</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>46</v>
+        <v>81</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>47</v>
+        <v>131</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
@@ -1645,13 +1825,13 @@
         <v>81</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1659,136 +1839,426 @@
         <v>81</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="D50" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A52" s="6" t="s">
+    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B52" s="6" t="s">
+      <c r="B51" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="C52" s="7" t="s">
+      <c r="C51" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="7" t="s">
+      <c r="D51" s="7" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A53" s="6" t="s">
+    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
         <v>33</v>
       </c>
+      <c r="B52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>33</v>
+      </c>
       <c r="B53" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A54" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A55" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="9" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A57" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="6" t="s">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C57" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" ht="85" x14ac:dyDescent="0.45">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>54</v>
+        <v>56</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
+        <v>48</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>137</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>57</v>
+        <v>138</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>58</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1804,7 +2274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1817,7 +2287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,21 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ABECE8-30B8-4441-A48F-7695FECCC5B2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{842214C4-7F5E-4521-B46A-6B659D334A4C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19390" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="190">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -297,14 +297,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>위,위 내용과 비슷. 없는 파트에 업무배정 exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>위,위 내용과 비슷. 없는 개인에 업무배정 exception</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyDAOUnitTest참고 - addDailyTaskWithWrongStaff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,22 +365,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>없는 업무 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyDAOUnitTest참고 - removeDailyTaskWorngWithNonExistDailyTask</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve"> assign_type 다른경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>assign_detail 다른경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyDAOUnitTest참고 - removeDailyTaskWorngWithAssignType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -475,6 +455,307 @@
   <si>
     <t>UserDAOUnitTest - getAdminSlideInfoWithWrongId 참고</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자,직원,미인증자 여부확인</t>
+  </si>
+  <si>
+    <t>관리자/직원회원인증</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디로 인증정보 확인 UserDAOUnitTest - getCertifiedInfo 참고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTaskTypesWrongWithNonExistSpaceType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getSpaceTypesWrongWithNonExistTaskType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getTasksWrongWithNonExistSpaceTypeTaskType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getManualTaskSeqWrongWithNonExistTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 공간분류에 해당하는 매뉴얼 업무 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 업무분류에 해당하는 공간분류 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 공간분류, 없는 업무분류에 해당하는 매뉴얼 업무 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 업무에 해당하는 매뉴얼 업무 SEQ찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼 업무 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간분류 전체 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매뉴얼 업무 SEQ찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 날짜에 해당하는 배정대상 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAssignedPartsWrongWithAssignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDailyTasksForPartsWrongWithAssignDateAssignDetail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getDailyTasksForPersonWrongWithAssignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파트별 - 선택한 날짜, 배정대상에 해당하는 업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인별 - 선택한 날짜에 해당하는 업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDailyTaskWithExistDailyTask</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배정날짜와 업무명이 중복되는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDailyTaskWithWrongWithAssignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는날짜에 업무명 중복 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 파트에 업무배정 exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 개인에 업무배정 exception</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 삭제 - 없는 업무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무삭제 - assign_type다른경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무삭제 - assign_detail다른경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배정대상 목록보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 목록 보기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 중복 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지점코드 입력 가능범위 초과</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWorkPartsWithOutofboundsBranchSeq</t>
+  </si>
+  <si>
+    <t>직원 소속파트 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 지점의 소속파트 가져오기</t>
+  </si>
+  <si>
+    <t>getWorkPartsWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>없는 지점의 직원목록 가져오기</t>
+  </si>
+  <si>
+    <t>직원 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getWorkingStaffsWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>없는 지점의 직원 인증요청 목록 가져오기</t>
+  </si>
+  <si>
+    <t>getPreStaffsWithNonexistBranchSeq</t>
+  </si>
+  <si>
+    <t>직원 인증요청 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미 인증요청 수락한(재직중인) 직원을 재수락하는 경우</t>
+  </si>
+  <si>
+    <t>setJoinDateWithPreStaff</t>
+  </si>
+  <si>
+    <t>직원 인증요청 수락</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증요청하지 않은 직원의 입사일을 등록하는 경우(회원이지만 인증요청X or 비회원)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setJoinDateWithoutAddStaff</t>
+  </si>
+  <si>
+    <t>이미 퇴사한 직원을 퇴사시키려는 경우-예외처리 필요</t>
+  </si>
+  <si>
+    <t>직원 인증요청 거부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사 직원 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setLeaveDateWithLeftStaff</t>
+  </si>
+  <si>
+    <t>인증요청만 하고 승인 안 된 직원을 퇴사시키는 경우</t>
+  </si>
+  <si>
+    <t>setLeaveDateWithPreStaff</t>
+  </si>
+  <si>
+    <t>인증요청하지 않은 직원의 퇴사일을 등록하는 경우/존재하지 않는 회원의 경우</t>
+  </si>
+  <si>
+    <t>setLeaveDateWithWrongStaff</t>
+  </si>
+  <si>
+    <t>getLeftStaffsWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>없는 지점의 퇴사직원 목록 조회</t>
+  </si>
+  <si>
+    <t>퇴사 직원 목록 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 상세 정보 보기</t>
+  </si>
+  <si>
+    <t>없는 지점의 직원 상세 보기</t>
+  </si>
+  <si>
+    <t>getStaffDetailWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>없는 직원 상세 보기</t>
+  </si>
+  <si>
+    <t>getStaffDetailWithWrongStaffId</t>
+  </si>
+  <si>
+    <t>직원 등록(승인요청)</t>
+  </si>
+  <si>
+    <t>재직중인 직원인데 인증요청하는 경우(입사일을 덮어씌우는 경우)</t>
+  </si>
+  <si>
+    <t>addStaffWithJoinedStaff
+추가 예외처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증요청한 직원이 계속 인증요청 하는 경우</t>
+  </si>
+  <si>
+    <t>addStaffWithPreStaff
+추가 예외처리 필요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직원 회원정보 변경</t>
+  </si>
+  <si>
+    <t>setStaffInfoWithPreStaff</t>
+  </si>
+  <si>
+    <t>인증 승인 대기중인 직원의 직원정보 변경-UI에서 할 수가 없음</t>
+  </si>
+  <si>
+    <t>없는 직원의 직원정보 변경</t>
+  </si>
+  <si>
+    <t>setStaffInfoWithWrongStaff</t>
+  </si>
+  <si>
+    <t>부적절한 파일형식으로 변경하는 경우</t>
+  </si>
+  <si>
+    <t>setStaffInfoWithWrongFileFormat</t>
+  </si>
+  <si>
+    <t>부적절한 계좌번호 형식으로 변경하는 경우</t>
+  </si>
+  <si>
+    <t>setStaffInfoWithWrongAccountNumFormat</t>
+  </si>
+  <si>
+    <t>이미 승인 처리받은 직원(재직) 의 요청을 거부하려고 하는 경우</t>
+  </si>
+  <si>
+    <t>인증요청하지 않은 경우(or 없는 직원의 경우)</t>
+  </si>
+  <si>
+    <t>removeStaffWithJoinedStaff</t>
+  </si>
+  <si>
+    <t>removeStaffWithWrongStaffId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴사한 직원의 인증을 거부하는 경우</t>
+  </si>
+  <si>
+    <t>removeStaffWithLeftStaff</t>
   </si>
 </sst>
 </file>
@@ -907,23 +1188,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:D82"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.4140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.9140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.4140625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.6640625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.625" style="1" customWidth="1"/>
     <col min="5" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -937,8 +1218,8 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17.5" thickTop="1" x14ac:dyDescent="0.45"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -952,53 +1233,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="B6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1006,13 +1293,13 @@
         <v>38</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1020,27 +1307,27 @@
         <v>38</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1048,27 +1335,27 @@
         <v>39</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+        <v>8</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1076,69 +1363,69 @@
         <v>38</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>96</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>108</v>
+        <v>34</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1146,13 +1433,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>98</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1160,13 +1447,13 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1174,69 +1461,69 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>44</v>
+        <v>105</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1250,7 +1537,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1261,10 +1548,10 @@
         <v>23</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1278,278 +1565,700 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>123</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>40</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>40</v>
+        <v>136</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>68</v>
+        <v>126</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>76</v>
+        <v>136</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>76</v>
+        <v>40</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>77</v>
+        <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>83</v>
+        <v>41</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>83</v>
+        <v>42</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>32</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B44" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D48" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A46" s="6" t="s">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B46" s="6"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="7"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A48" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="B51" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A53" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A56" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="D48" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A49" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D57" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="50" spans="1:4" ht="85" x14ac:dyDescent="0.45">
-      <c r="A50" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C58" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D58" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A51" s="3" t="s">
+    <row r="59" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C59" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D59" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1565,7 +2274,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1578,7 +2287,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{842214C4-7F5E-4521-B46A-6B659D334A4C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB485F01-000F-4764-ABCA-542218576C39}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="193">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -756,6 +756,19 @@
   </si>
   <si>
     <t>removeStaffWithLeftStaff</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO 예외처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ok                                                                                                                                                                                                                                                      ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -787,7 +800,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -813,13 +826,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -849,6 +871,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1188,11 +1213,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D82"/>
+  <dimension ref="A1:E82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A60" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1201,10 +1226,11 @@
     <col min="2" max="2" width="23.875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="32.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="78.625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
+    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1217,9 +1243,14 @@
       <c r="D1" s="5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17.25" thickTop="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="E2" s="10"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1233,7 +1264,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1245,7 +1276,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1288,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1271,7 +1302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1285,7 +1316,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1299,7 +1330,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1313,7 +1344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1327,7 +1358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1341,7 +1372,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1355,7 +1386,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1369,7 +1400,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1383,7 +1414,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1397,7 +1428,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1411,7 +1442,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1425,7 +1456,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1439,7 +1470,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1484,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1467,7 +1498,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1481,7 +1512,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1495,7 +1526,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1509,7 +1540,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1523,7 +1554,10 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E26" s="10"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1536,8 +1570,11 @@
       <c r="D27" s="7" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="E27" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1550,8 +1587,11 @@
       <c r="D28" s="1" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="E28" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1564,8 +1604,11 @@
       <c r="D29" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="E29" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1579,7 +1622,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1593,7 +1636,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1831,7 +1874,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1845,7 +1888,10 @@
         <v>84</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
@@ -1859,7 +1905,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>33</v>
       </c>
@@ -1873,7 +1919,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="53" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>33</v>
       </c>
@@ -1887,7 +1933,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="54" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>33</v>
       </c>
@@ -1901,7 +1947,10 @@
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
@@ -1915,7 +1964,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -1929,7 +1978,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:4" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
@@ -1943,7 +1992,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -1956,8 +2005,11 @@
       <c r="D59" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E59" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
@@ -1971,7 +2023,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>48</v>
       </c>
@@ -1985,7 +2037,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>48</v>
       </c>
@@ -1999,7 +2051,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="63" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
@@ -2013,7 +2065,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>48</v>
       </c>
@@ -2153,7 +2205,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>48</v>
       </c>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{AB485F01-000F-4764-ABCA-542218576C39}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C452F8-CBAC-450C-98E1-A03C0DFB56BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19400" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="194">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -318,22 +318,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DailyDAOUnitTest참고 - setDailyTaskWrongWithChangeAssignDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매뉴얼 업무에 해당하는 assign_detail을 바꾸려는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyDAOUnitTest참고 - setDailyTaskWrongWithNonExistTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyDAOUnitTest참고 - setDailyTaskWrongWithOverDataSize</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업무수정</t>
   </si>
   <si>
@@ -349,18 +333,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DailyDAOUnitTest참고 - setDailyAssignWrongWithNonExistPart</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>없는 직원에 재배정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>DailyDAOUnitTest참고 - setDailyAssignWrongWithNonExistStaff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업무삭제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -468,22 +444,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getTaskTypesWrongWithNonExistSpaceType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getSpaceTypesWrongWithNonExistTaskType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getTasksWrongWithNonExistSpaceTypeTaskType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getManualTaskSeqWrongWithNonExistTask</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>없는 공간분류에 해당하는 매뉴얼 업무 전체 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -516,18 +476,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>getAssignedPartsWrongWithAssignDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDailyTasksForPartsWrongWithAssignDateAssignDetail</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getDailyTasksForPersonWrongWithAssignDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파트별 - 선택한 날짜, 배정대상에 해당하는 업무 목록 보기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -541,14 +489,6 @@
   </si>
   <si>
     <t>배정날짜와 업무명이 중복되는 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDailyTaskWithWrongWithAssignDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>없는날짜에 업무명 중복 확인</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -769,6 +709,58 @@
     <t xml:space="preserve">
 ok                                                                                                                                                                                                                                                      ok</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식에 맞지않은 날짜에 업무명 중복 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바꾸려는 배정한 업무의 assign_detail이 다른 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDailyTaskWithWrongAssignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAssignedPartsWithWrongAssignDate</t>
+  </si>
+  <si>
+    <t>getDailyTasksForPartsWithWrongAssignDateAssignDetail</t>
+  </si>
+  <si>
+    <t>getDailyTasksForPersonWithWrongAssignDate</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongNonExistTask</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongAssignDetail</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongOverDataSize</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonExistPart</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonExistStaff</t>
+  </si>
+  <si>
+    <t>getTaskTypesWithWrongNonExistSpaceType</t>
+  </si>
+  <si>
+    <t>getSpaceTypesWithWrongNonExistTaskType</t>
+  </si>
+  <si>
+    <t>getTasksWithWrongNonExistSpaceTypeTaskType</t>
+  </si>
+  <si>
+    <t>getManualTaskSeqWithWrongNonExistTask</t>
   </si>
 </sst>
 </file>
@@ -1216,21 +1208,21 @@
   <dimension ref="A1:E82"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.58203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.08203125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1244,13 +1236,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1264,31 +1256,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1302,7 +1294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1316,7 +1308,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1330,7 +1322,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1344,7 +1336,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1350,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1372,7 +1364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1378,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1400,49 +1392,49 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1448,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1464,13 +1456,13 @@
         <v>36</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1478,13 +1470,13 @@
         <v>36</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1492,18 +1484,18 @@
         <v>36</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>9</v>
@@ -1512,7 +1504,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1526,38 +1518,38 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1571,10 +1563,10 @@
         <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1588,10 +1580,10 @@
         <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1605,80 +1597,95 @@
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+        <v>184</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>128</v>
+        <v>178</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
@@ -1691,8 +1698,11 @@
       <c r="D35" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
@@ -1700,13 +1710,16 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E36" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -1714,13 +1727,16 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="E37" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -1733,50 +1749,59 @@
       <c r="D38" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+      <c r="E38" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>69</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>185</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>71</v>
+        <v>180</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>186</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
@@ -1790,7 +1815,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
@@ -1804,7 +1829,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1812,13 +1837,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -1826,13 +1851,13 @@
         <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="33" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
@@ -1846,111 +1871,111 @@
         <v>30</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E50" s="10"/>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>33</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C51" s="7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A52" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C52" s="9" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="D52" s="9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E55" s="10"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A56" s="6" t="s">
         <v>48</v>
       </c>
@@ -1964,7 +1989,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="57" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>48</v>
       </c>
@@ -1978,7 +2003,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
@@ -1992,7 +2017,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>56</v>
       </c>
@@ -2006,309 +2031,309 @@
         <v>58</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B60" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="D65" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D60" s="1" t="s">
+    </row>
+    <row r="66" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="3" t="s">
+      <c r="D66" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D71" s="1" t="s">
+      <c r="C78" s="1" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="3" t="s">
+      <c r="D78" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="34" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C79" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D72" s="1" t="s">
+      <c r="D79" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="73" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C73" s="1" t="s">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D73" s="1" t="s">
+      <c r="D80" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="74" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="C77" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>48</v>
       </c>
@@ -2326,7 +2351,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2339,7 +2364,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C452F8-CBAC-450C-98E1-A03C0DFB56BE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{97A70CD8-0800-4C0E-A70A-E7A2CD9333F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19400" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="210">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -568,9 +568,6 @@
     <t>이미 인증요청 수락한(재직중인) 직원을 재수락하는 경우</t>
   </si>
   <si>
-    <t>setJoinDateWithPreStaff</t>
-  </si>
-  <si>
     <t>직원 인증요청 수락</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,28 +636,12 @@
     <t>재직중인 직원인데 인증요청하는 경우(입사일을 덮어씌우는 경우)</t>
   </si>
   <si>
-    <t>addStaffWithJoinedStaff
-추가 예외처리 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증요청한 직원이 계속 인증요청 하는 경우</t>
-  </si>
-  <si>
-    <t>addStaffWithPreStaff
-추가 예외처리 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>직원 회원정보 변경</t>
   </si>
   <si>
     <t>setStaffInfoWithPreStaff</t>
   </si>
   <si>
-    <t>인증 승인 대기중인 직원의 직원정보 변경-UI에서 할 수가 없음</t>
-  </si>
-  <si>
     <t>없는 직원의 직원정보 변경</t>
   </si>
   <si>
@@ -706,61 +687,134 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>형식에 맞지않은 날짜에 업무명 중복 확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SQLException</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바꾸려는 배정한 업무의 assign_detail이 다른 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>isDailyTaskWithWrongAssignDate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getAssignedPartsWithWrongAssignDate</t>
+  </si>
+  <si>
+    <t>getDailyTasksForPartsWithWrongAssignDateAssignDetail</t>
+  </si>
+  <si>
+    <t>getDailyTasksForPersonWithWrongAssignDate</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongNonExistTask</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongAssignDetail</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongOverDataSize</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonExistPart</t>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonExistStaff</t>
+  </si>
+  <si>
+    <t>getTaskTypesWithWrongNonExistSpaceType</t>
+  </si>
+  <si>
+    <t>getSpaceTypesWithWrongNonExistTaskType</t>
+  </si>
+  <si>
+    <t>getTasksWithWrongNonExistSpaceTypeTaskType</t>
+  </si>
+  <si>
+    <t>getManualTaskSeqWithWrongNonExistTask</t>
+  </si>
+  <si>
+    <t>FormatCheckSolution 완료 후</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t xml:space="preserve">
-ok                                                                                                                                                                                                                                                      ok</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>형식에 맞지않은 날짜에 업무명 중복 확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SQLException</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>바꾸려는 배정한 업무의 assign_detail이 다른 경우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>isDailyTaskWithWrongAssignDate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>getAssignedPartsWithWrongAssignDate</t>
-  </si>
-  <si>
-    <t>getDailyTasksForPartsWithWrongAssignDateAssignDetail</t>
-  </si>
-  <si>
-    <t>getDailyTasksForPersonWithWrongAssignDate</t>
-  </si>
-  <si>
-    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongNonExistTask</t>
-  </si>
-  <si>
-    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongAssignDetail</t>
-  </si>
-  <si>
-    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongOverDataSize</t>
-  </si>
-  <si>
-    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonExistPart</t>
-  </si>
-  <si>
-    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonExistStaff</t>
-  </si>
-  <si>
-    <t>getTaskTypesWithWrongNonExistSpaceType</t>
-  </si>
-  <si>
-    <t>getSpaceTypesWithWrongNonExistTaskType</t>
-  </si>
-  <si>
-    <t>getTasksWithWrongNonExistSpaceTypeTaskType</t>
-  </si>
-  <si>
-    <t>getManualTaskSeqWithWrongNonExistTask</t>
+OK
+OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>결과값: &lt;[]&gt;</t>
+  </si>
+  <si>
+    <t>결과값: []</t>
+  </si>
+  <si>
+    <t>결과: DB 수정 안됨</t>
+  </si>
+  <si>
+    <t>결과값: null</t>
+  </si>
+  <si>
+    <t>없는 지점에 인증요청하는 경우</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addStaffWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>setJoinDateWithExistStaff</t>
+  </si>
+  <si>
+    <t>addStaffWithJoinedStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증요청하고 승인대기중인 직원이 계속 인증요청 하는 경우</t>
+  </si>
+  <si>
+    <t>addStaffWithPreStaff</t>
+  </si>
+  <si>
+    <t>addStaffWithPreStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 승인 대기중인 직원의 직원정보 변경-현재 UI에서 할 수가 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception 필요없음</t>
+  </si>
+  <si>
+    <t>exception 필요없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직 직원의 직원정보 변경-현재 UI에서 할 수가 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setStaffInfoWithLeftStaff</t>
+  </si>
+  <si>
+    <t>결과:DB 수정 안됨</t>
+  </si>
+  <si>
+    <t>다른 메소드에서 구현한 거 같은데 윤영이 확인 필요할듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 날짜 기준으로 과거 날짜에 업무배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1205,24 +1259,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E82"/>
+  <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D40" sqref="D40"/>
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.58203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.08203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1236,13 +1290,13 @@
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1256,7 +1310,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1268,7 +1322,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1280,7 +1334,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1294,7 +1348,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1308,7 +1362,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1376,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1336,7 +1390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1350,7 +1404,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1364,7 +1418,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1378,7 +1432,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1392,7 +1446,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1406,7 +1460,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1420,7 +1474,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1434,7 +1488,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1448,7 +1502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1462,7 +1516,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1530,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1490,7 +1544,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1504,7 +1558,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1518,7 +1572,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1532,7 +1586,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1546,10 +1600,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1563,10 +1617,10 @@
         <v>30</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1580,10 +1634,10 @@
         <v>68</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1597,44 +1651,38 @@
         <v>27</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>119</v>
+        <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1642,33 +1690,33 @@
         <v>120</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>112</v>
+        <v>178</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1676,33 +1724,33 @@
         <v>121</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>178</v>
+        <v>113</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>181</v>
+        <v>112</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>62</v>
+        <v>172</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>63</v>
+        <v>175</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
@@ -1710,16 +1758,16 @@
         <v>40</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -1727,16 +1775,16 @@
         <v>40</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -1744,33 +1792,33 @@
         <v>40</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>185</v>
+        <v>67</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1778,58 +1826,67 @@
         <v>70</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>180</v>
+        <v>69</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>72</v>
+        <v>174</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+        <v>180</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+        <v>181</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1837,13 +1894,13 @@
         <v>42</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>73</v>
+        <v>32</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -1851,41 +1908,41 @@
         <v>42</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
@@ -1893,13 +1950,13 @@
         <v>75</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1907,435 +1964,562 @@
         <v>75</v>
       </c>
       <c r="C49" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D50" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E50" s="10"/>
-    </row>
-    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="A51" s="6" t="s">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="10"/>
+    </row>
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A52" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B51" s="6" t="s">
+      <c r="B52" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C52" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="D51" s="7" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="A52" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="D52" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B54" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A55" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="C54" s="9" t="s">
+      <c r="C55" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="D55" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="10"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A64" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="3" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="E55" s="10"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A56" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="85" x14ac:dyDescent="0.45">
-      <c r="A57" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="85" x14ac:dyDescent="0.45">
-      <c r="A58" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.45">
-      <c r="A59" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E59" s="1" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A60" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A61" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="A63" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.45">
-      <c r="A64" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A66" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C66" s="1" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A74" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A75" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A76" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A77" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A78" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A80" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A81" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A82" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B82" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A67" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" ht="51" x14ac:dyDescent="0.45">
-      <c r="A68" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A69" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A70" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A71" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A74" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A75" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D75" s="1" t="s">
+      <c r="C82" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A76" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C76" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A83" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A77" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E83" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C84" s="1" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A78" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C78" s="1" t="s">
+      <c r="D84" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="34" x14ac:dyDescent="0.45">
-      <c r="A79" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
-      <c r="A80" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A81" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.45">
-      <c r="A82" s="3" t="s">
-        <v>48</v>
+      <c r="E84" s="3" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -2351,7 +2535,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2364,7 +2548,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{97A70CD8-0800-4C0E-A70A-E7A2CD9333F6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF9A25-1863-4515-8E90-DAC8CD746659}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19400" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="211">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -814,6 +814,10 @@
   </si>
   <si>
     <t>현재 날짜 기준으로 과거 날짜에 업무배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonInput</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1262,21 +1266,21 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D65" sqref="D65"/>
+      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1293,10 +1297,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1310,7 +1314,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1322,7 +1326,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1334,7 +1338,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1348,7 +1352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1362,7 +1366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1376,7 +1380,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1394,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1404,7 +1408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1422,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1432,7 +1436,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1446,7 +1450,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1460,7 +1464,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1474,7 +1478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1488,7 +1492,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1502,7 +1506,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1516,7 +1520,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1530,7 +1534,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1548,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1558,7 +1562,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1572,7 +1576,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1586,7 +1590,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1600,10 +1604,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1620,7 +1624,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1637,7 +1641,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1654,7 +1658,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1665,7 +1669,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1682,7 +1686,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1699,7 +1703,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -1716,7 +1720,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1733,7 +1737,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
@@ -1750,7 +1754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
@@ -1767,7 +1771,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -1784,7 +1788,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -1801,7 +1805,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1818,7 +1822,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1835,7 +1839,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
@@ -1852,7 +1856,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
@@ -1869,7 +1873,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1897,10 +1901,13 @@
         <v>32</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>210</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +1921,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
@@ -1928,7 +1935,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
@@ -1942,7 +1949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
@@ -1956,7 +1963,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1970,7 +1977,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -1984,10 +1991,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A52" s="6" t="s">
         <v>33</v>
       </c>
@@ -2001,7 +2008,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A53" s="8" t="s">
         <v>33</v>
       </c>
@@ -2015,7 +2022,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A54" s="8" t="s">
         <v>33</v>
       </c>
@@ -2029,7 +2036,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A55" s="8" t="s">
         <v>33</v>
       </c>
@@ -2043,10 +2050,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
@@ -2063,7 +2070,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="58" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
@@ -2080,7 +2087,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="59" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" ht="85" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>48</v>
       </c>
@@ -2097,7 +2104,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2114,7 +2121,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>48</v>
       </c>
@@ -2131,7 +2138,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>48</v>
       </c>
@@ -2148,7 +2155,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
@@ -2165,7 +2172,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A64" s="3" t="s">
         <v>48</v>
       </c>
@@ -2182,7 +2189,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="65" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
@@ -2199,7 +2206,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -2216,7 +2223,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A67" s="3" t="s">
         <v>48</v>
       </c>
@@ -2233,7 +2240,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A68" s="3" t="s">
         <v>48</v>
       </c>
@@ -2250,7 +2257,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="69" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" ht="51" x14ac:dyDescent="0.45">
       <c r="A69" s="3" t="s">
         <v>48</v>
       </c>
@@ -2267,7 +2274,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A70" s="3" t="s">
         <v>48</v>
       </c>
@@ -2284,7 +2291,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A71" s="3" t="s">
         <v>48</v>
       </c>
@@ -2301,7 +2308,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A72" s="3" t="s">
         <v>48</v>
       </c>
@@ -2318,7 +2325,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A73" s="3" t="s">
         <v>48</v>
       </c>
@@ -2335,7 +2342,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A74" s="3" t="s">
         <v>48</v>
       </c>
@@ -2352,7 +2359,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A75" s="3" t="s">
         <v>48</v>
       </c>
@@ -2369,7 +2376,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A76" s="3" t="s">
         <v>48</v>
       </c>
@@ -2386,7 +2393,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A77" s="3" t="s">
         <v>48</v>
       </c>
@@ -2403,7 +2410,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="78" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A78" s="3" t="s">
         <v>48</v>
       </c>
@@ -2420,7 +2427,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A79" s="3" t="s">
         <v>48</v>
       </c>
@@ -2437,7 +2444,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="80" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A80" s="3" t="s">
         <v>48</v>
       </c>
@@ -2454,7 +2461,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="81" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A81" s="3" t="s">
         <v>48</v>
       </c>
@@ -2471,7 +2478,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="82" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A82" s="3" t="s">
         <v>48</v>
       </c>
@@ -2488,7 +2495,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="83" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A83" s="3" t="s">
         <v>48</v>
       </c>
@@ -2505,7 +2512,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A84" s="3" t="s">
         <v>48</v>
       </c>
@@ -2535,7 +2542,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2548,7 +2555,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8CF9A25-1863-4515-8E90-DAC8CD746659}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6023C2B3-761A-499E-8759-91CB56ECF4E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19400" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="206">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -743,81 +743,66 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>없는 지점에 인증요청하는 경우</t>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addStaffWithWrongBranchSeq</t>
+  </si>
+  <si>
+    <t>setJoinDateWithExistStaff</t>
+  </si>
+  <si>
+    <t>addStaffWithJoinedStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증요청하고 승인대기중인 직원이 계속 인증요청 하는 경우</t>
+  </si>
+  <si>
+    <t>addStaffWithPreStaff</t>
+  </si>
+  <si>
+    <t>addStaffWithPreStaff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인증 승인 대기중인 직원의 직원정보 변경-현재 UI에서 할 수가 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>exception 필요없음</t>
+  </si>
+  <si>
+    <t>exception 필요없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퇴직 직원의 직원정보 변경-현재 UI에서 할 수가 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>setStaffInfoWithLeftStaff</t>
+  </si>
+  <si>
+    <t>다른 메소드에서 구현한 거 같은데 윤영이 확인 필요할듯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 날짜 기준으로 과거 날짜에 업무배정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonInput</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK
 OK
 OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>결과값: &lt;[]&gt;</t>
-  </si>
-  <si>
-    <t>결과값: []</t>
-  </si>
-  <si>
-    <t>결과: DB 수정 안됨</t>
-  </si>
-  <si>
-    <t>결과값: null</t>
-  </si>
-  <si>
-    <t>없는 지점에 인증요청하는 경우</t>
-  </si>
-  <si>
-    <t>OK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addStaffWithWrongBranchSeq</t>
-  </si>
-  <si>
-    <t>setJoinDateWithExistStaff</t>
-  </si>
-  <si>
-    <t>addStaffWithJoinedStaff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증요청하고 승인대기중인 직원이 계속 인증요청 하는 경우</t>
-  </si>
-  <si>
-    <t>addStaffWithPreStaff</t>
-  </si>
-  <si>
-    <t>addStaffWithPreStaff</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>인증 승인 대기중인 직원의 직원정보 변경-현재 UI에서 할 수가 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>exception 필요없음</t>
-  </si>
-  <si>
-    <t>exception 필요없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>퇴직 직원의 직원정보 변경-현재 UI에서 할 수가 없음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>setStaffInfoWithLeftStaff</t>
-  </si>
-  <si>
-    <t>결과:DB 수정 안됨</t>
-  </si>
-  <si>
-    <t>다른 메소드에서 구현한 거 같은데 윤영이 확인 필요할듯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 날짜 기준으로 과거 날짜에 업무배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonInput</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1266,21 +1251,21 @@
   <dimension ref="A1:E84"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A37" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D49" sqref="D49"/>
+      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.58203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>17</v>
       </c>
@@ -1297,10 +1282,10 @@
         <v>171</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1314,7 +1299,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1311,7 @@
       </c>
       <c r="D4" s="9"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1323,7 @@
       </c>
       <c r="D5" s="9"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
@@ -1352,7 +1337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>0</v>
       </c>
@@ -1366,7 +1351,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>0</v>
       </c>
@@ -1380,7 +1365,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1379,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
@@ -1408,7 +1393,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
@@ -1422,7 +1407,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1436,7 +1421,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
@@ -1450,7 +1435,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -1464,7 +1449,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1463,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
@@ -1492,7 +1477,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
@@ -1506,7 +1491,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
@@ -1520,7 +1505,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
@@ -1534,7 +1519,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
@@ -1548,7 +1533,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
         <v>0</v>
       </c>
@@ -1562,7 +1547,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
         <v>0</v>
       </c>
@@ -1576,7 +1561,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
         <v>0</v>
       </c>
@@ -1590,7 +1575,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -1604,10 +1589,10 @@
         <v>96</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E26" s="10"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>22</v>
       </c>
@@ -1624,7 +1609,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
         <v>22</v>
       </c>
@@ -1641,7 +1626,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
         <v>22</v>
       </c>
@@ -1658,7 +1643,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
         <v>22</v>
       </c>
@@ -1666,10 +1651,10 @@
         <v>40</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
         <v>22</v>
       </c>
@@ -1686,7 +1671,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
         <v>22</v>
       </c>
@@ -1703,7 +1688,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
         <v>22</v>
       </c>
@@ -1720,7 +1705,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
         <v>22</v>
       </c>
@@ -1737,7 +1722,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
         <v>22</v>
       </c>
@@ -1754,7 +1739,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
         <v>22</v>
       </c>
@@ -1771,7 +1756,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
         <v>22</v>
       </c>
@@ -1788,7 +1773,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
         <v>22</v>
       </c>
@@ -1805,7 +1790,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
         <v>22</v>
       </c>
@@ -1822,7 +1807,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
         <v>22</v>
       </c>
@@ -1839,7 +1824,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
         <v>22</v>
       </c>
@@ -1856,7 +1841,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
         <v>22</v>
       </c>
@@ -1873,7 +1858,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
         <v>22</v>
       </c>
@@ -1890,7 +1875,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
         <v>22</v>
       </c>
@@ -1901,13 +1886,13 @@
         <v>32</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
         <v>22</v>
       </c>
@@ -1921,7 +1906,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
         <v>22</v>
       </c>
@@ -1935,7 +1920,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
         <v>22</v>
       </c>
@@ -1949,7 +1934,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
         <v>22</v>
       </c>
@@ -1963,7 +1948,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
         <v>22</v>
       </c>
@@ -1977,7 +1962,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
         <v>22</v>
       </c>
@@ -1991,10 +1976,10 @@
         <v>78</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E51" s="10"/>
     </row>
-    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>33</v>
       </c>
@@ -2008,7 +1993,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>33</v>
       </c>
@@ -2022,7 +2007,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>33</v>
       </c>
@@ -2036,7 +2021,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>33</v>
       </c>
@@ -2050,10 +2035,10 @@
         <v>187</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="E56" s="10"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>48</v>
       </c>
@@ -2067,10 +2052,10 @@
         <v>50</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
         <v>48</v>
       </c>
@@ -2084,10 +2069,10 @@
         <v>53</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
         <v>48</v>
       </c>
@@ -2101,10 +2086,10 @@
         <v>55</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
         <v>56</v>
       </c>
@@ -2118,10 +2103,10 @@
         <v>58</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
         <v>48</v>
       </c>
@@ -2135,10 +2120,10 @@
         <v>124</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
         <v>48</v>
       </c>
@@ -2152,10 +2137,10 @@
         <v>127</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="3" t="s">
         <v>48</v>
       </c>
@@ -2169,10 +2154,10 @@
         <v>130</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
         <v>48</v>
       </c>
@@ -2186,10 +2171,10 @@
         <v>132</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
         <v>48</v>
       </c>
@@ -2200,13 +2185,13 @@
         <v>134</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
         <v>48</v>
       </c>
@@ -2220,10 +2205,10 @@
         <v>137</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A67" s="3" t="s">
         <v>48</v>
       </c>
@@ -2237,10 +2222,10 @@
         <v>141</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
         <v>48</v>
       </c>
@@ -2254,10 +2239,10 @@
         <v>143</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
       <c r="A69" s="3" t="s">
         <v>48</v>
       </c>
@@ -2271,10 +2256,10 @@
         <v>145</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="3" t="s">
         <v>48</v>
       </c>
@@ -2288,10 +2273,10 @@
         <v>146</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="3" t="s">
         <v>48</v>
       </c>
@@ -2305,10 +2290,10 @@
         <v>151</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="3" t="s">
         <v>48</v>
       </c>
@@ -2322,10 +2307,10 @@
         <v>153</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="3" t="s">
         <v>48</v>
       </c>
@@ -2333,16 +2318,16 @@
         <v>154</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
         <v>48</v>
       </c>
@@ -2353,13 +2338,13 @@
         <v>155</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
         <v>48</v>
       </c>
@@ -2367,16 +2352,16 @@
         <v>154</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
         <v>48</v>
       </c>
@@ -2384,16 +2369,16 @@
         <v>154</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
         <v>48</v>
       </c>
@@ -2401,16 +2386,16 @@
         <v>156</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>157</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
         <v>48</v>
       </c>
@@ -2418,16 +2403,16 @@
         <v>156</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
         <v>48</v>
       </c>
@@ -2441,10 +2426,10 @@
         <v>159</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
         <v>48</v>
       </c>
@@ -2458,10 +2443,10 @@
         <v>161</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A81" s="3" t="s">
         <v>48</v>
       </c>
@@ -2475,10 +2460,10 @@
         <v>163</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A82" s="3" t="s">
         <v>48</v>
       </c>
@@ -2492,10 +2477,10 @@
         <v>166</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A83" s="3" t="s">
         <v>48</v>
       </c>
@@ -2509,10 +2494,10 @@
         <v>167</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.45">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>48</v>
       </c>
@@ -2526,7 +2511,7 @@
         <v>169</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>207</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2542,7 +2527,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2555,7 +2540,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{6023C2B3-761A-499E-8759-91CB56ECF4E5}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED190DA3-7754-407A-B8D5-1963F0AF4BD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,35 +22,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="199">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>아이디 길이 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>비밀번호 양식 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>성별 양식 제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이름 길이 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 입력 값 미 입력 시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>M/F? M/W?</t>
-  </si>
-  <si>
     <t>이메일 양식 제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -59,16 +40,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>첨부파일 확장자명 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필요한지?
-Ex) 이력서: .hwp .doc/.docx .xls/.xlsx
-보건증/통장사본: .jpg .png .jpeg…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Ex) (지역번호)-(3~4자리)-(4자리)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -81,18 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당 아이디로 회원가입 제한. Oracle 무결성 제약조건 대체하기 위함. UI에서 처리하면 되나?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB에서 NN인 값 입력 안 한 경우. 너무 광범위한가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>@ 이후 지정 안 할 때, 유효한 주소 아닐때</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>예외 발생 가능 페이지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -105,15 +64,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OO자 이상 XX자 이하
-1111, 1234, aaaa, 생년월일 4자리, 휴대폰번호 뒷번호 같은 것도 제한할건지?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전체</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DailyDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -122,14 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>길이제한+문자/숫자/…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2~4자(UI 입력칸 고려). 회원가입 + 회원정보변경-대표자명 수정에 사용 가능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>배정 유형(assign_type)에 개인/파트 이외에 직접 입력 제한</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -166,11 +108,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기존 비밀번호와 같다고 표시해줘야 하나?
-그냥 처리해주는게 보안에 더 나은가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원정보변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,18 +133,6 @@
   </si>
   <si>
     <t>업무재배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원회원인증</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>계좌번호 오류</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>은행 별 계좌번호 유형(길이, -) 체크 필요?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -277,14 +202,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전화번호 양식 제한</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>숫자로만 이루어진 10~11자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>중요도 0,1 이외 exception</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -386,10 +303,6 @@
   </si>
   <si>
     <t>UserDAOUnitTest - setUserInfoWithWrongId 참고</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>직원회원인증/회원정보변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -803,6 +716,63 @@
     <t>OK
 OK
 OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필사진 파일형식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M/F</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력값 길이 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID: 6~16. PW: 6~16. 이름: 2~4. 전화번호:10~11. 이메일:40.
+생년:4. 월:2. 일:2.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">번호 형식 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전화번호, 생년월일 숫자여부 검사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외처리 필요X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.이후 도메인 값 검사: com, net, kr만 가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>있는 아이디로 회원가입 제한</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내부적으로 보기 위함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>길이 제한만 구현</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1248,11 +1218,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E84"/>
+  <dimension ref="A1:E80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I60" sqref="I60"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1267,19 +1237,19 @@
   <sheetData>
     <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>171</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
@@ -1290,79 +1260,97 @@
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>21</v>
+        <v>101</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>5</v>
+        <v>185</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="D4" s="9"/>
+        <v>189</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="D5" s="9"/>
+        <v>191</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="B6" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="D8" s="1" t="s">
-        <v>24</v>
+        <v>188</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -1370,13 +1358,16 @@
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>25</v>
+        <v>2</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -1384,13 +1375,16 @@
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -1398,13 +1392,16 @@
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>61</v>
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -1412,13 +1409,16 @@
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>11</v>
+        <v>69</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -1426,41 +1426,50 @@
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>77</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>89</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>91</v>
+        <v>197</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
@@ -1468,41 +1477,50 @@
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>84</v>
+        <v>21</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>92</v>
+        <v>66</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>95</v>
+        <v>67</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -1510,13 +1528,16 @@
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -1524,994 +1545,941 @@
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E22" s="10"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E26" s="10"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>30</v>
+      <c r="D27" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A28" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>68</v>
+        <v>156</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A29" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>40</v>
+        <v>99</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>27</v>
+        <v>157</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>203</v>
+        <v>92</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>110</v>
+        <v>42</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>177</v>
+        <v>43</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>120</v>
+        <v>25</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>178</v>
+        <v>44</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A35" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>172</v>
+        <v>46</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>175</v>
+        <v>47</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A36" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>63</v>
+        <v>158</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A37" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>64</v>
+        <v>159</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A38" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>115</v>
+        <v>52</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>65</v>
+        <v>160</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>17</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>69</v>
+        <v>18</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>174</v>
+        <v>53</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E41" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>188</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>170</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>182</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="3" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>74</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A47" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B48" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C48" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="10"/>
+    </row>
+    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A48" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="D48" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A49" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A50" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A51" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="10"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D53" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A54" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="A55" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A56" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A60" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A61" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A62" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C49" s="1" t="s">
+      <c r="E62" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A63" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C50" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="D50" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="10"/>
-    </row>
-    <row r="52" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A52" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A53" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C53" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="D53" s="9" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C54" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A55" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C55" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="D55" s="9" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E56" s="10"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E60" s="1" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D61" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E62" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="D63" s="1" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A64" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="A65" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B69" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E64" s="3" t="s">
+      <c r="C69" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B65" s="3" t="s">
+      <c r="E69" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A70" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A71" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A72" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+      <c r="A73" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B73" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="1" t="s">
+      <c r="C73" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D66" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>191</v>
-      </c>
       <c r="E73" s="3" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A74" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>195</v>
+        <v>138</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>190</v>
+        <v>149</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A76" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>154</v>
+        <v>135</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>194</v>
+        <v>139</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A77" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>157</v>
+        <v>142</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A78" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>200</v>
+        <v>143</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>201</v>
+        <v>145</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="33" x14ac:dyDescent="0.3">
       <c r="A79" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="3" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>156</v>
+        <v>118</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A81" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B81" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="C81" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A82" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A83" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B83" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C83" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B84" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="C84" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>170</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/예외사항정리.xlsx
+++ b/예외사항정리.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SW\workspace\Matrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{ED190DA3-7754-407A-B8D5-1963F0AF4BD6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904948C3-1561-4F19-B8E2-1E2DD6B57F2C}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="60" windowWidth="19395" windowHeight="7845" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="60" windowWidth="19400" windowHeight="7850" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="208">
   <si>
     <t>UserDAO.java</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>길이 제한/양식 제한 필요?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>업무 선택 안 하고 추가 누를때</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -125,10 +121,6 @@
   </si>
   <si>
     <t>일일업무배정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일일업무배정, 업무수정</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -631,9 +623,6 @@
     <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongAssignDetail</t>
   </si>
   <si>
-    <t>DailyDAOUnitTest참고 - setDailyTaskWithWrongOverDataSize</t>
-  </si>
-  <si>
     <t>DailyDAOUnitTest참고 - setDailyAssignWithWrongNonExistPart</t>
   </si>
   <si>
@@ -650,10 +639,6 @@
   </si>
   <si>
     <t>getManualTaskSeqWithWrongNonExistTask</t>
-  </si>
-  <si>
-    <t>FormatCheckSolution 완료 후</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>없는 지점에 인증요청하는 경우</t>
@@ -773,6 +758,58 @@
   </si>
   <si>
     <t>길이 제한만 구현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무 한가지 검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>찾는 업무가 없는 경우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - getDailyTaskWithNonExist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>없는 업무로 예외처리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWithOverDataSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - addDailyTaskWithOverDataSize</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - addDailyTaskWithPast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 날짜 배정업무 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>과거 날짜 배정업무 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업무삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - setDailyTaskWithPast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DailyDAOUnitTest참고 - removeDailyTaskWithPast</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1218,24 +1255,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E80"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="23.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="78.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="78.58203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.25" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A1" s="4" t="s">
         <v>7</v>
       </c>
@@ -1249,133 +1286,133 @@
         <v>6</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.45">
       <c r="E2" s="10"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A4" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D4" s="9" t="s">
-        <v>190</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="C5" s="9" t="s">
-        <v>191</v>
-      </c>
       <c r="D5" s="9" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="9" t="s">
         <v>59</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>61</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="3" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A9" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A10" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>3</v>
@@ -1384,222 +1421,222 @@
         <v>4</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A11" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A12" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A13" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="E13" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A15" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A16" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A17" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A19" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
       <c r="E19" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A20" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E20" s="3" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
       <c r="E22" s="10"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A23" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C23" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>16</v>
-      </c>
       <c r="E23" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A24" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A25" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>12</v>
@@ -1608,878 +1645,944 @@
         <v>13</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B27" s="3" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>155</v>
+        <v>206</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>10</v>
-      </c>
+        <v>147</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
       <c r="B28" s="3" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>156</v>
+        <v>207</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A29" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A30" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A31" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>151</v>
+        <v>88</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A32" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>25</v>
+        <v>98</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>93</v>
+        <v>149</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>44</v>
+        <v>152</v>
       </c>
       <c r="E33" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A34" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E34" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A35" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>46</v>
+        <v>91</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E35" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A36" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>158</v>
+        <v>43</v>
       </c>
       <c r="E36" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A37" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>159</v>
+        <v>45</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A38" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A39" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>17</v>
+        <v>151</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A40" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>183</v>
+        <v>199</v>
       </c>
       <c r="E40" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A41" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>53</v>
+        <v>16</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>200</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A42" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="33" x14ac:dyDescent="0.3">
+        <v>179</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A43" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>29</v>
+        <v>51</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A44" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>159</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="34" x14ac:dyDescent="0.45">
       <c r="A45" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A46" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B46" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="10"/>
-    </row>
-    <row r="48" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A48" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="6" t="s">
+      <c r="E47" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E50" s="10"/>
+    </row>
+    <row r="51" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A51" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A52" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C52" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A53" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A54" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B54" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="C48" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="D48" s="7" t="s">
+      <c r="C54" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="D54" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="C49" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D49" s="9" t="s">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E55" s="10"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A56" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D56" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+      <c r="A57" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="85" x14ac:dyDescent="0.45">
+      <c r="A58" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A59" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A60" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A61" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A62" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A63" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A64" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A65" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A66" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A67" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="51" x14ac:dyDescent="0.45">
+      <c r="A68" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B68" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A69" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B69" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="E69" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A70" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A71" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A72" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C72" s="1" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A50" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C50" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="D50" s="9" t="s">
+      <c r="D72" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E72" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="51" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A51" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C51" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="10"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A54" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="C54" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D54" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="E54" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="A55" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="C55" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A56" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C56" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C58" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="D58" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C59" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E59" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A60" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A61" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="D61" s="1" t="s">
+    <row r="73" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A73" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B73" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A74" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A75" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D75" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A62" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="D62" s="1" t="s">
+      <c r="E75" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A76" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A77" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A78" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A79" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A80" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A81" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B81" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E63" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A65" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E65" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="E66" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B67" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C69" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C70" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A71" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A72" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A73" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B73" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A74" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C74" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C75" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="D75" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A76" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B76" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C76" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D76" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A77" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B77" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77" s="1" t="s">
+      <c r="C81" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="D81" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="34" x14ac:dyDescent="0.45">
+      <c r="A82" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B82" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C82" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E77" s="3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A78" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D78" s="1" t="s">
+      <c r="D82" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A83" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="E78" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" ht="33" x14ac:dyDescent="0.3">
-      <c r="A79" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C79" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D79" s="1" t="s">
+      <c r="D83" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="E79" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B80" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D80" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>149</v>
+      <c r="E83" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -2495,7 +2598,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2508,7 +2611,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
